--- a/Sprint 2 backlog.xlsx
+++ b/Sprint 2 backlog.xlsx
@@ -31,7 +31,7 @@
     <t>Reviewer 2</t>
   </si>
   <si>
-    <t>Unique idea is with refrence to original product backlog</t>
+    <t>Unique id is with refrence to original product backlog</t>
   </si>
   <si>
     <t>As a reviewer I should be able to accept or reject an application, so that the application goes to the next stage or go back to the updating stage accordingly.</t>
